--- a/C1data.xlsx
+++ b/C1data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>Goal</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>OPM4</t>
-  </si>
-  <si>
-    <t>PM3 B</t>
-  </si>
-  <si>
-    <t>PM3 A</t>
   </si>
   <si>
     <t>Percent of 0-20 year old patients with Phase 1 treatment plans completed within 6 months</t>
@@ -352,6 +346,9 @@
   <si>
     <t>Percent Recommendation to Family and Friends</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
 </sst>
 </file>
 
@@ -441,7 +438,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,14 +481,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -621,6 +612,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -638,7 +677,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -755,44 +794,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -845,6 +851,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Grey" xfId="1"/>
@@ -903,11 +953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200156288"/>
-        <c:axId val="200157824"/>
+        <c:axId val="166834560"/>
+        <c:axId val="166836096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200156288"/>
+        <c:axId val="166834560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200157824"/>
+        <c:crossAx val="166836096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200157824"/>
+        <c:axId val="166836096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +1034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200156288"/>
+        <c:crossAx val="166834560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1692,11 +1742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209836288"/>
-        <c:axId val="213323776"/>
+        <c:axId val="174446080"/>
+        <c:axId val="174447616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209836288"/>
+        <c:axId val="174446080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213323776"/>
+        <c:crossAx val="174447616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1742,7 +1792,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="213323776"/>
+        <c:axId val="174447616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1811,7 +1861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209836288"/>
+        <c:crossAx val="174446080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -2521,11 +2571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213374848"/>
-        <c:axId val="213376384"/>
+        <c:axId val="174507136"/>
+        <c:axId val="174508672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="213374848"/>
+        <c:axId val="174507136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213376384"/>
+        <c:crossAx val="174508672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2571,7 +2621,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="213376384"/>
+        <c:axId val="174508672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2640,7 +2690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213374848"/>
+        <c:crossAx val="174507136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3340,11 +3390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213895040"/>
-        <c:axId val="213896576"/>
+        <c:axId val="196494464"/>
+        <c:axId val="196496000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="213895040"/>
+        <c:axId val="196494464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213896576"/>
+        <c:crossAx val="196496000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3390,7 +3440,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="213896576"/>
+        <c:axId val="196496000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3459,7 +3509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213895040"/>
+        <c:crossAx val="196494464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -4159,11 +4209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216217088"/>
-        <c:axId val="216218624"/>
+        <c:axId val="196551424"/>
+        <c:axId val="196552960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="216217088"/>
+        <c:axId val="196551424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,7 +4248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216218624"/>
+        <c:crossAx val="196552960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -4209,7 +4259,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="216218624"/>
+        <c:axId val="196552960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,7 +4326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216217088"/>
+        <c:crossAx val="196551424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4975,11 +5025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216425216"/>
-        <c:axId val="216426752"/>
+        <c:axId val="196608000"/>
+        <c:axId val="196609536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="216425216"/>
+        <c:axId val="196608000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +5064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216426752"/>
+        <c:crossAx val="196609536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5025,7 +5075,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="216426752"/>
+        <c:axId val="196609536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5093,7 +5143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216425216"/>
+        <c:crossAx val="196608000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5811,11 +5861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284799360"/>
-        <c:axId val="284800896"/>
+        <c:axId val="196697472"/>
+        <c:axId val="196703360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="284799360"/>
+        <c:axId val="196697472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,7 +5900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284800896"/>
+        <c:crossAx val="196703360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5861,7 +5911,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="284800896"/>
+        <c:axId val="196703360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5928,7 +5978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284799360"/>
+        <c:crossAx val="196697472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6149,11 +6199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="200185728"/>
-        <c:axId val="200200192"/>
+        <c:axId val="167060608"/>
+        <c:axId val="167062528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200185728"/>
+        <c:axId val="167060608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6188,7 +6238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200200192"/>
+        <c:crossAx val="167062528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6198,7 +6248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200200192"/>
+        <c:axId val="167062528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -6266,7 +6316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200185728"/>
+        <c:crossAx val="167060608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6891,11 +6941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209207296"/>
-        <c:axId val="209208832"/>
+        <c:axId val="167259136"/>
+        <c:axId val="167260928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209207296"/>
+        <c:axId val="167259136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,7 +6980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209208832"/>
+        <c:crossAx val="167260928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -6941,7 +6991,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="209208832"/>
+        <c:axId val="167260928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7010,7 +7060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209207296"/>
+        <c:crossAx val="167259136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -7637,11 +7687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209287424"/>
-        <c:axId val="209305600"/>
+        <c:axId val="167290368"/>
+        <c:axId val="167291904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209287424"/>
+        <c:axId val="167290368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7676,7 +7726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209305600"/>
+        <c:crossAx val="167291904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -7685,7 +7735,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="209305600"/>
+        <c:axId val="167291904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7754,7 +7804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209287424"/>
+        <c:crossAx val="167290368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8120,11 +8170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209357824"/>
-        <c:axId val="209363712"/>
+        <c:axId val="167303424"/>
+        <c:axId val="167309312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209357824"/>
+        <c:axId val="167303424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8159,7 +8209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209363712"/>
+        <c:crossAx val="167309312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -8170,7 +8220,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="209363712"/>
+        <c:axId val="167309312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8239,7 +8289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209357824"/>
+        <c:crossAx val="167303424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -8909,11 +8959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209418880"/>
-        <c:axId val="209432960"/>
+        <c:axId val="167614336"/>
+        <c:axId val="167615872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209418880"/>
+        <c:axId val="167614336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8948,7 +8998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209432960"/>
+        <c:crossAx val="167615872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -8959,7 +9009,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="209432960"/>
+        <c:axId val="167615872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9028,7 +9078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209418880"/>
+        <c:crossAx val="167614336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -9728,11 +9778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209501184"/>
-        <c:axId val="209523456"/>
+        <c:axId val="173938944"/>
+        <c:axId val="173953024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209501184"/>
+        <c:axId val="173938944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9767,7 +9817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209523456"/>
+        <c:crossAx val="173953024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -9778,7 +9828,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="209523456"/>
+        <c:axId val="173953024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9847,7 +9897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209501184"/>
+        <c:crossAx val="173938944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -10547,11 +10597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209574528"/>
-        <c:axId val="209662336"/>
+        <c:axId val="174081920"/>
+        <c:axId val="174083456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209574528"/>
+        <c:axId val="174081920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10586,7 +10636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209662336"/>
+        <c:crossAx val="174083456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -10597,7 +10647,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="209662336"/>
+        <c:axId val="174083456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10666,7 +10716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209574528"/>
+        <c:crossAx val="174081920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -11366,11 +11416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209729792"/>
-        <c:axId val="209739776"/>
+        <c:axId val="174396928"/>
+        <c:axId val="174398464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209729792"/>
+        <c:axId val="174396928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11405,7 +11455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209739776"/>
+        <c:crossAx val="174398464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -11416,7 +11466,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="209739776"/>
+        <c:axId val="174398464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11485,7 +11535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209729792"/>
+        <c:crossAx val="174396928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -17946,32 +17996,32 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -17998,7 +18048,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -18015,40 +18065,40 @@
         <v>65</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="26.4">
       <c r="A3" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="39">
         <v>50</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
       <c r="A4" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="39">
         <v>55</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="26.4">
       <c r="A5" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="39">
         <v>60</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R5" s="18" t="s">
         <v>12</v>
@@ -18056,25 +18106,25 @@
     </row>
     <row r="6" spans="1:18" ht="26.4">
       <c r="A6" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="39">
         <v>65</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:18" ht="26.4">
       <c r="A7" s="36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="39">
         <v>70</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="18" t="s">
         <v>5</v>
@@ -18085,13 +18135,13 @@
     </row>
     <row r="8" spans="1:18" ht="24.75" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="38">
         <v>75</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="18"/>
       <c r="R8" s="18" t="s">
@@ -18100,78 +18150,78 @@
     </row>
     <row r="9" spans="1:18" ht="26.4">
       <c r="A9" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="40">
         <v>60</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" ht="26.4">
       <c r="A10" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="38">
         <v>75</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="38">
         <v>80</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="38">
         <v>25</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="38">
         <v>4</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:18" ht="26.25" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="38">
         <v>50</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
@@ -18221,7 +18271,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="18" t="s">
         <v>8</v>
@@ -18262,16 +18312,16 @@
   <dimension ref="A1:BC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AF28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="AK7" sqref="AK7:AK40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="3" width="12.109375" style="43" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" style="42" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" style="11" customWidth="1"/>
     <col min="6" max="6" width="13" style="11" customWidth="1"/>
@@ -18297,23 +18347,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="25.2" customHeight="1">
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="60" t="str">
         <f>T(Measures!$A21)</f>
         <v>C1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
@@ -18342,283 +18392,286 @@
       <c r="AO1" s="29"/>
       <c r="AP1" s="29"/>
     </row>
-    <row r="2" spans="1:55" ht="25.2" customHeight="1">
-      <c r="B2" s="41"/>
-      <c r="C2" s="44" t="s">
+    <row r="2" spans="1:55" s="75" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="50" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="44" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="44" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="68"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="44" t="s">
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44" t="s">
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="44" t="s">
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="44" t="s">
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="44" t="s">
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="44" t="s">
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45" t="s">
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="71"/>
     </row>
-    <row r="3" spans="1:55" s="70" customFormat="1" ht="180" customHeight="1">
+    <row r="3" spans="1:55" s="59" customFormat="1" ht="180" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="F3" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="J3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="54" t="s">
+      <c r="M3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="54" t="s">
+      <c r="P3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="V3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q3" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" s="12" t="s">
+      <c r="AB3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD3" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="T3" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="W3" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" s="10" t="s">
+      <c r="AF3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z3" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AG3" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AB3" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC3" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD3" s="66" t="s">
+      <c r="AI3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN3" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="AE3" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF3" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG3" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AO3" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="AI3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK3" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="58" t="s">
+      <c r="AP3" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ3" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR3" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS3" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT3" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU3" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV3" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW3" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AM3" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN3" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO3" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP3" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ3" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR3" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS3" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT3" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU3" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV3" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW3" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX3" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY3" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ3" s="69" t="s">
+      <c r="AY3" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="BA3" s="69" t="s">
+      <c r="BA3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="BB3" s="69" t="s">
+      <c r="BB3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="BC3" s="69" t="s">
+      <c r="BC3" s="58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="60" customFormat="1" ht="19.95" customHeight="1">
+    <row r="4" spans="1:55" s="49" customFormat="1" ht="19.95" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="43" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="12" t="s">
@@ -18630,94 +18683,94 @@
       <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>86</v>
+      <c r="P4" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="44" t="s">
+        <v>84</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="55" t="s">
-        <v>52</v>
+      <c r="S4" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>50</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="55" t="s">
-        <v>54</v>
+      <c r="V4" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="X4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="55" t="s">
+      <c r="Y4" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE4" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="55" t="s">
+      <c r="AF4" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="AA4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC4" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE4" s="55" t="s">
+      <c r="AG4" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="56" t="s">
+      <c r="AI4" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AG4" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH4" s="57" t="s">
+      <c r="AJ4" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AI4" s="58" t="s">
+      <c r="AL4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AJ4" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AM4" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AO4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AM4" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN4" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP4" s="59" t="s">
+      <c r="AP4" s="48" t="s">
         <v>30</v>
       </c>
       <c r="AQ4" s="10" t="str">
@@ -18778,10 +18831,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="50">
         <v>42401</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="51">
         <v>42370</v>
       </c>
       <c r="D5" s="20">
@@ -18969,10 +19022,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="50">
         <v>42430</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="51">
         <f>B5</f>
         <v>42401</v>
       </c>
@@ -19161,10 +19214,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="50">
         <v>42461</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="51">
         <f>B6</f>
         <v>42430</v>
       </c>
@@ -19260,10 +19313,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK7" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK7" s="26"/>
       <c r="AL7" s="26"/>
       <c r="AM7" s="24" t="e">
         <f t="shared" si="13"/>
@@ -19333,10 +19383,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="50">
         <v>42491</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="51">
         <f t="shared" ref="C8:C40" si="15">B7</f>
         <v>42461</v>
       </c>
@@ -19422,10 +19472,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK8" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK8" s="26"/>
       <c r="AL8" s="26"/>
       <c r="AM8" s="24" t="e">
         <f t="shared" si="13"/>
@@ -19495,10 +19542,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="50">
         <v>42522</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="51">
         <f t="shared" si="15"/>
         <v>42491</v>
       </c>
@@ -19520,14 +19567,14 @@
       </c>
       <c r="J9" s="19">
         <f ca="1">0.1*RANDBETWEEN(4,8)*H9</f>
-        <v>44.800000000000004</v>
+        <v>32</v>
       </c>
       <c r="K9" s="25">
         <v>64</v>
       </c>
       <c r="L9" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -19577,10 +19624,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK9" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK9" s="26"/>
       <c r="AL9" s="26"/>
       <c r="AM9" s="24" t="e">
         <f t="shared" si="13"/>
@@ -19650,10 +19694,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="50">
         <v>42552</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="51">
         <f t="shared" si="15"/>
         <v>42522</v>
       </c>
@@ -19732,10 +19776,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK10" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK10" s="26"/>
       <c r="AL10" s="26"/>
       <c r="AM10" s="24" t="e">
         <f t="shared" si="13"/>
@@ -19805,10 +19846,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="50">
         <v>42583</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="51">
         <f t="shared" si="15"/>
         <v>42552</v>
       </c>
@@ -19830,14 +19871,14 @@
       </c>
       <c r="J11" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>30.800000000000004</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="K11" s="25">
         <v>44</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
@@ -19887,10 +19928,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK11" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK11" s="26"/>
       <c r="AL11" s="26"/>
       <c r="AM11" s="24" t="e">
         <f t="shared" si="13"/>
@@ -19960,10 +19998,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="50">
         <v>42614</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="51">
         <f t="shared" si="15"/>
         <v>42583</v>
       </c>
@@ -19985,14 +20023,14 @@
       </c>
       <c r="J12" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>43.2</v>
+        <v>21.6</v>
       </c>
       <c r="K12" s="25">
         <v>54</v>
       </c>
       <c r="L12" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
@@ -20042,10 +20080,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK12" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK12" s="26"/>
       <c r="AL12" s="26"/>
       <c r="AM12" s="24" t="e">
         <f t="shared" si="13"/>
@@ -20115,10 +20150,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="50">
         <v>42644</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="51">
         <f t="shared" si="15"/>
         <v>42614</v>
       </c>
@@ -20140,14 +20175,14 @@
       </c>
       <c r="J13" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>22.400000000000002</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="K13" s="25">
         <v>32</v>
       </c>
       <c r="L13" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
@@ -20197,10 +20232,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK13" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK13" s="26"/>
       <c r="AL13" s="26"/>
       <c r="AM13" s="24" t="e">
         <f t="shared" si="13"/>
@@ -20270,10 +20302,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="50">
         <v>42675</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="51">
         <f t="shared" si="15"/>
         <v>42644</v>
       </c>
@@ -20295,14 +20327,14 @@
       </c>
       <c r="J14" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>25.5</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="K14" s="25">
         <v>51</v>
       </c>
       <c r="L14" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
@@ -20352,10 +20384,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK14" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK14" s="26"/>
       <c r="AL14" s="26"/>
       <c r="AM14" s="24" t="e">
         <f t="shared" si="13"/>
@@ -20425,10 +20454,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="50">
         <v>42705</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="51">
         <f t="shared" si="15"/>
         <v>42675</v>
       </c>
@@ -20450,14 +20479,14 @@
       </c>
       <c r="J15" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>29.400000000000006</v>
+        <v>34.300000000000004</v>
       </c>
       <c r="K15" s="25">
         <v>49</v>
       </c>
       <c r="L15" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>60.000000000000007</v>
+        <v>70</v>
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
@@ -20507,10 +20536,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK15" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK15" s="26"/>
       <c r="AL15" s="26"/>
       <c r="AM15" s="24" t="e">
         <f t="shared" si="13"/>
@@ -20580,10 +20606,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="50">
         <v>42736</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="51">
         <f t="shared" si="15"/>
         <v>42705</v>
       </c>
@@ -20605,14 +20631,14 @@
       </c>
       <c r="J16" s="19">
         <f t="shared" ca="1" si="16"/>
-        <v>41.6</v>
+        <v>20.8</v>
       </c>
       <c r="K16" s="25">
         <v>52</v>
       </c>
       <c r="L16" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
@@ -20662,10 +20688,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK16" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
       <c r="AM16" s="24" t="e">
         <f t="shared" si="13"/>
@@ -20735,10 +20758,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="50">
         <v>42767</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="51">
         <f t="shared" si="15"/>
         <v>42736</v>
       </c>
@@ -20808,10 +20831,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK17" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK17" s="26"/>
       <c r="AL17" s="26"/>
       <c r="AM17" s="24" t="e">
         <f t="shared" si="13"/>
@@ -20881,10 +20901,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="50">
         <v>42795</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="51">
         <f t="shared" si="15"/>
         <v>42767</v>
       </c>
@@ -20954,10 +20974,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK18" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK18" s="26"/>
       <c r="AL18" s="26"/>
       <c r="AM18" s="24" t="e">
         <f t="shared" si="13"/>
@@ -21027,10 +21044,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="50">
         <v>42826</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="51">
         <f t="shared" si="15"/>
         <v>42795</v>
       </c>
@@ -21100,10 +21117,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK19" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK19" s="26"/>
       <c r="AL19" s="26"/>
       <c r="AM19" s="24" t="e">
         <f t="shared" si="13"/>
@@ -21173,10 +21187,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="50">
         <v>42856</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="51">
         <f t="shared" si="15"/>
         <v>42826</v>
       </c>
@@ -21246,10 +21260,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK20" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK20" s="26"/>
       <c r="AL20" s="26"/>
       <c r="AM20" s="24" t="e">
         <f t="shared" si="13"/>
@@ -21319,10 +21330,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="50">
         <v>42887</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="51">
         <f t="shared" si="15"/>
         <v>42856</v>
       </c>
@@ -21392,10 +21403,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK21" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK21" s="26"/>
       <c r="AL21" s="26"/>
       <c r="AM21" s="24" t="e">
         <f t="shared" si="13"/>
@@ -21465,10 +21473,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="50">
         <v>42917</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="51">
         <f t="shared" si="15"/>
         <v>42887</v>
       </c>
@@ -21538,10 +21546,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK22" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK22" s="26"/>
       <c r="AL22" s="26"/>
       <c r="AM22" s="24" t="e">
         <f t="shared" si="13"/>
@@ -21611,10 +21616,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="50">
         <v>42948</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="51">
         <f t="shared" si="15"/>
         <v>42917</v>
       </c>
@@ -21684,10 +21689,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK23" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK23" s="26"/>
       <c r="AL23" s="26"/>
       <c r="AM23" s="24" t="e">
         <f t="shared" si="13"/>
@@ -21757,10 +21759,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="50">
         <v>42979</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="51">
         <f t="shared" si="15"/>
         <v>42948</v>
       </c>
@@ -21830,10 +21832,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK24" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK24" s="26"/>
       <c r="AL24" s="26"/>
       <c r="AM24" s="24" t="e">
         <f t="shared" si="13"/>
@@ -21903,10 +21902,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="50">
         <v>43009</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="51">
         <f t="shared" si="15"/>
         <v>42979</v>
       </c>
@@ -21976,10 +21975,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AK25" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK25" s="26"/>
       <c r="AL25" s="26"/>
       <c r="AM25" s="24" t="e">
         <f t="shared" si="13"/>
@@ -22049,10 +22045,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="50">
         <v>43040</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="51">
         <f t="shared" si="15"/>
         <v>43009</v>
       </c>
@@ -22122,10 +22118,7 @@
         <f>IF(AND(AI26&gt;0,ISNUMBER(AH26)),(AH26/AI26),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AK26" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK26" s="26"/>
       <c r="AL26" s="26"/>
       <c r="AM26" s="24" t="e">
         <f t="shared" si="13"/>
@@ -22195,10 +22188,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="50">
         <v>43070</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="51">
         <f t="shared" si="15"/>
         <v>43040</v>
       </c>
@@ -22268,10 +22261,7 @@
         <f t="shared" ref="AJ27:AJ39" si="18">IF(AND(AI27&gt;0,ISNUMBER(AH27)),(AH27/AI27),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AK27" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK27" s="26"/>
       <c r="AL27" s="26"/>
       <c r="AM27" s="24" t="e">
         <f t="shared" si="13"/>
@@ -22341,10 +22331,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="50">
         <v>43101</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="51">
         <f t="shared" si="15"/>
         <v>43070</v>
       </c>
@@ -22414,10 +22404,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK28" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK28" s="26"/>
       <c r="AL28" s="26"/>
       <c r="AM28" s="24" t="e">
         <f t="shared" si="13"/>
@@ -22487,10 +22474,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B29" s="61">
+      <c r="B29" s="50">
         <v>43132</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="51">
         <f t="shared" si="15"/>
         <v>43101</v>
       </c>
@@ -22560,10 +22547,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK29" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK29" s="26"/>
       <c r="AL29" s="26"/>
       <c r="AM29" s="24" t="e">
         <f t="shared" si="13"/>
@@ -22633,10 +22617,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B30" s="50">
         <v>43160</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="51">
         <f t="shared" si="15"/>
         <v>43132</v>
       </c>
@@ -22706,10 +22690,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK30" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK30" s="26"/>
       <c r="AL30" s="26"/>
       <c r="AM30" s="24" t="e">
         <f t="shared" si="13"/>
@@ -22779,10 +22760,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B31" s="61">
+      <c r="B31" s="50">
         <v>43191</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="51">
         <f t="shared" si="15"/>
         <v>43160</v>
       </c>
@@ -22852,10 +22833,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK31" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK31" s="26"/>
       <c r="AL31" s="26"/>
       <c r="AM31" s="24" t="e">
         <f t="shared" si="13"/>
@@ -22925,10 +22903,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B32" s="61">
+      <c r="B32" s="50">
         <v>43221</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="51">
         <f t="shared" si="15"/>
         <v>43191</v>
       </c>
@@ -22998,10 +22976,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK32" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK32" s="26"/>
       <c r="AL32" s="26"/>
       <c r="AM32" s="24" t="e">
         <f t="shared" si="13"/>
@@ -23071,10 +23046,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="50">
         <v>43252</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="51">
         <f t="shared" si="15"/>
         <v>43221</v>
       </c>
@@ -23144,10 +23119,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK33" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK33" s="26"/>
       <c r="AL33" s="26"/>
       <c r="AM33" s="24" t="e">
         <f t="shared" si="13"/>
@@ -23217,10 +23189,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="50">
         <v>43282</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="51">
         <f t="shared" si="15"/>
         <v>43252</v>
       </c>
@@ -23290,10 +23262,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK34" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK34" s="26"/>
       <c r="AL34" s="26"/>
       <c r="AM34" s="24" t="e">
         <f t="shared" si="13"/>
@@ -23363,10 +23332,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B35" s="61">
+      <c r="B35" s="50">
         <v>43313</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="51">
         <f t="shared" si="15"/>
         <v>43282</v>
       </c>
@@ -23436,10 +23405,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK35" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK35" s="26"/>
       <c r="AL35" s="26"/>
       <c r="AM35" s="24" t="e">
         <f t="shared" si="13"/>
@@ -23509,10 +23475,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="50">
         <v>43344</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="51">
         <f t="shared" si="15"/>
         <v>43313</v>
       </c>
@@ -23582,10 +23548,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK36" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK36" s="26"/>
       <c r="AL36" s="26"/>
       <c r="AM36" s="24" t="e">
         <f t="shared" si="13"/>
@@ -23655,10 +23618,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B37" s="61">
+      <c r="B37" s="50">
         <v>43374</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="51">
         <f t="shared" si="15"/>
         <v>43344</v>
       </c>
@@ -23728,10 +23691,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK37" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK37" s="26"/>
       <c r="AL37" s="26"/>
       <c r="AM37" s="24" t="e">
         <f t="shared" si="13"/>
@@ -23801,10 +23761,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B38" s="61">
+      <c r="B38" s="50">
         <v>43405</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="51">
         <f t="shared" si="15"/>
         <v>43374</v>
       </c>
@@ -23874,10 +23834,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK38" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK38" s="26"/>
       <c r="AL38" s="26"/>
       <c r="AM38" s="24" t="e">
         <f t="shared" si="13"/>
@@ -23947,10 +23904,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B39" s="61">
+      <c r="B39" s="50">
         <v>43435</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="51">
         <f t="shared" si="15"/>
         <v>43405</v>
       </c>
@@ -24020,10 +23977,7 @@
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="AK39" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AK39" s="26"/>
       <c r="AL39" s="26"/>
       <c r="AM39" s="24" t="e">
         <f t="shared" si="13"/>
@@ -24093,10 +24047,10 @@
         <f>Measures!$A$21</f>
         <v>C1</v>
       </c>
-      <c r="B40" s="61">
+      <c r="B40" s="50">
         <v>43466</v>
       </c>
-      <c r="C40" s="62">
+      <c r="C40" s="51">
         <f t="shared" si="15"/>
         <v>43435</v>
       </c>
@@ -24166,19 +24120,16 @@
         <f t="shared" ref="AJ40" si="29">IF(AND(AI40&gt;0,ISNUMBER(AH40)),(AH40/AI40),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="AK40" s="26">
-        <f t="shared" ref="AK40" si="30">AI40</f>
-        <v>0</v>
-      </c>
+      <c r="AK40" s="26"/>
       <c r="AL40" s="26"/>
       <c r="AM40" s="24" t="e">
-        <f t="shared" ref="AM40" si="31">IF(AND(AL40&gt;0,ISNUMBER(AK40)),(AK40/AL40),NA())</f>
+        <f t="shared" ref="AM40" si="30">IF(AND(AL40&gt;0,ISNUMBER(AK40)),(AK40/AL40),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="AN40" s="26"/>
       <c r="AO40" s="26"/>
       <c r="AP40" s="24" t="e">
-        <f t="shared" ref="AP40" si="32">IF(AND(AO40&gt;0,ISNUMBER(AN40)),(AN40/AO40),NA())</f>
+        <f t="shared" ref="AP40" si="31">IF(AND(AO40&gt;0,ISNUMBER(AN40)),(AN40/AO40),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="AQ40" s="8">
@@ -24235,9 +24186,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AQ2:BC2"/>
     <mergeCell ref="B1:O1"/>
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
@@ -24246,11 +24201,8 @@
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AQ2:BC2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="6">
@@ -24317,19 +24269,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="22.2" customHeight="1">
-      <c r="A1" s="46" t="str">
+      <c r="A1" s="60" t="str">
         <f>T(Measures!$A21)</f>
         <v>C1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="S2" s="3"/>
@@ -24399,7 +24351,7 @@
     <row r="59" ht="12" customHeight="1"/>
     <row r="71" spans="1:1">
       <c r="A71" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -24431,19 +24383,19 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="46" t="str">
+      <c r="A1" s="60" t="str">
         <f>T(Measures!A21)</f>
         <v>C1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="38" ht="12.75" customHeight="1"/>
@@ -24473,25 +24425,25 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="46" t="str">
+      <c r="A1" s="60" t="str">
         <f>T(Measures!A21)</f>
         <v>C1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="38" ht="12.75" customHeight="1"/>
     <row r="71" spans="1:1">
       <c r="A71" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
